--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.099392</v>
+        <v>0.490625</v>
       </c>
       <c r="H2">
-        <v>4.198784</v>
+        <v>0.98125</v>
       </c>
       <c r="I2">
-        <v>0.3767652188062087</v>
+        <v>0.1949754713405762</v>
       </c>
       <c r="J2">
-        <v>0.3035604213192941</v>
+        <v>0.1616908987426915</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.013510500000001</v>
+        <v>5.8908695</v>
       </c>
       <c r="N2">
-        <v>12.027021</v>
+        <v>11.781739</v>
       </c>
       <c r="O2">
-        <v>0.1516060519857131</v>
+        <v>0.1224772029811874</v>
       </c>
       <c r="P2">
-        <v>0.1075307803750902</v>
+        <v>0.08620308330573365</v>
       </c>
       <c r="Q2">
-        <v>12.624715835616</v>
+        <v>2.8902078484375</v>
       </c>
       <c r="R2">
-        <v>50.49886334246401</v>
+        <v>11.56083139375</v>
       </c>
       <c r="S2">
-        <v>0.05711988734874266</v>
+        <v>0.02388005037973243</v>
       </c>
       <c r="T2">
-        <v>0.03264208899545486</v>
+        <v>0.01393825401409518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.099392</v>
+        <v>0.490625</v>
       </c>
       <c r="H3">
-        <v>4.198784</v>
+        <v>0.98125</v>
       </c>
       <c r="I3">
-        <v>0.3767652188062087</v>
+        <v>0.1949754713405762</v>
       </c>
       <c r="J3">
-        <v>0.3035604213192941</v>
+        <v>0.1616908987426915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.201880999999999</v>
       </c>
       <c r="O3">
-        <v>0.04371471213636324</v>
+        <v>0.03605080908802919</v>
       </c>
       <c r="P3">
-        <v>0.04650880075359928</v>
+        <v>0.03806044092383246</v>
       </c>
       <c r="Q3">
-        <v>3.640262452117333</v>
+        <v>0.8507242885416665</v>
       </c>
       <c r="R3">
-        <v>21.84157471270399</v>
+        <v>5.104345731249999</v>
       </c>
       <c r="S3">
-        <v>0.01647018308310732</v>
+        <v>0.007029023494147618</v>
       </c>
       <c r="T3">
-        <v>0.0141182311518177</v>
+        <v>0.006154026899517588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.099392</v>
+        <v>0.490625</v>
       </c>
       <c r="H4">
-        <v>4.198784</v>
+        <v>0.98125</v>
       </c>
       <c r="I4">
-        <v>0.3767652188062087</v>
+        <v>0.1949754713405762</v>
       </c>
       <c r="J4">
-        <v>0.3035604213192941</v>
+        <v>0.1616908987426915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.377631</v>
+        <v>12.79502633333333</v>
       </c>
       <c r="N4">
-        <v>34.132893</v>
+        <v>38.385079</v>
       </c>
       <c r="O4">
-        <v>0.286840393287791</v>
+        <v>0.2660216861665844</v>
       </c>
       <c r="P4">
-        <v>0.3051742090372547</v>
+        <v>0.2808509136668336</v>
       </c>
       <c r="Q4">
-        <v>23.886107500352</v>
+        <v>6.277559794791666</v>
       </c>
       <c r="R4">
-        <v>143.316645002112</v>
+        <v>37.66535876875</v>
       </c>
       <c r="S4">
-        <v>0.1080714835395335</v>
+        <v>0.05186770364714463</v>
       </c>
       <c r="T4">
-        <v>0.09263881147113139</v>
+        <v>0.0454110366434964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.099392</v>
+        <v>0.490625</v>
       </c>
       <c r="H5">
-        <v>4.198784</v>
+        <v>0.98125</v>
       </c>
       <c r="I5">
-        <v>0.3767652188062087</v>
+        <v>0.1949754713405762</v>
       </c>
       <c r="J5">
-        <v>0.3035604213192941</v>
+        <v>0.1616908987426915</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1353665</v>
+        <v>1.727957</v>
       </c>
       <c r="N5">
-        <v>2.270733</v>
+        <v>3.455914</v>
       </c>
       <c r="O5">
-        <v>0.02862361886984934</v>
+        <v>0.03592599364690791</v>
       </c>
       <c r="P5">
-        <v>0.02030209238958422</v>
+        <v>0.02528577847798624</v>
       </c>
       <c r="Q5">
-        <v>2.383579347168</v>
+        <v>0.8477789031249999</v>
       </c>
       <c r="R5">
-        <v>9.534317388671999</v>
+        <v>3.3911156125</v>
       </c>
       <c r="S5">
-        <v>0.01078438402652431</v>
+        <v>0.007004687544684415</v>
       </c>
       <c r="T5">
-        <v>0.00616291171944542</v>
+        <v>0.004088480247514203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.099392</v>
+        <v>0.490625</v>
       </c>
       <c r="H6">
-        <v>4.198784</v>
+        <v>0.98125</v>
       </c>
       <c r="I6">
-        <v>0.3767652188062087</v>
+        <v>0.1949754713405762</v>
       </c>
       <c r="J6">
-        <v>0.3035604213192941</v>
+        <v>0.1616908987426915</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.206652333333333</v>
+        <v>14.23741033333333</v>
       </c>
       <c r="N6">
-        <v>12.619957</v>
+        <v>42.712231</v>
       </c>
       <c r="O6">
-        <v>0.1060535193766029</v>
+        <v>0.2960103250160475</v>
       </c>
       <c r="P6">
-        <v>0.1128320824009604</v>
+        <v>0.3125112521221815</v>
       </c>
       <c r="Q6">
-        <v>8.831412255381334</v>
+        <v>6.985229444791665</v>
       </c>
       <c r="R6">
-        <v>52.988473532288</v>
+        <v>41.91137666874999</v>
       </c>
       <c r="S6">
-        <v>0.03995727743309427</v>
+        <v>0.05771475264168099</v>
       </c>
       <c r="T6">
-        <v>0.03425135447196886</v>
+        <v>0.0505302252228394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.099392</v>
+        <v>0.490625</v>
       </c>
       <c r="H7">
-        <v>4.198784</v>
+        <v>0.98125</v>
       </c>
       <c r="I7">
-        <v>0.3767652188062087</v>
+        <v>0.1949754713405762</v>
       </c>
       <c r="J7">
-        <v>0.3035604213192941</v>
+        <v>0.1616908987426915</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.19825166666667</v>
+        <v>11.712458</v>
       </c>
       <c r="N7">
-        <v>45.594755</v>
+        <v>35.137374</v>
       </c>
       <c r="O7">
-        <v>0.3831617043436804</v>
+        <v>0.2435139831012437</v>
       </c>
       <c r="P7">
-        <v>0.4076520350435111</v>
+        <v>0.2570885315034325</v>
       </c>
       <c r="Q7">
-        <v>31.90708796298667</v>
+        <v>5.74642470625</v>
       </c>
       <c r="R7">
-        <v>191.44252777792</v>
+        <v>34.4785482375</v>
       </c>
       <c r="S7">
-        <v>0.1443620033752066</v>
+        <v>0.04747925363318609</v>
       </c>
       <c r="T7">
-        <v>0.1237470235094759</v>
+        <v>0.04156887571522878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.55001</v>
       </c>
       <c r="I8">
-        <v>0.1525449710532097</v>
+        <v>0.3377932240667058</v>
       </c>
       <c r="J8">
-        <v>0.1843586404941081</v>
+        <v>0.4201920088691474</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.013510500000001</v>
+        <v>5.8908695</v>
       </c>
       <c r="N8">
-        <v>12.027021</v>
+        <v>11.781739</v>
       </c>
       <c r="O8">
-        <v>0.1516060519857131</v>
+        <v>0.1224772029811874</v>
       </c>
       <c r="P8">
-        <v>0.1075307803750902</v>
+        <v>0.08620308330573365</v>
       </c>
       <c r="Q8">
-        <v>5.111503970035001</v>
+        <v>5.007258711231667</v>
       </c>
       <c r="R8">
-        <v>30.66902382021</v>
+        <v>30.04355226739</v>
       </c>
       <c r="S8">
-        <v>0.02312674081165202</v>
+        <v>0.04137196926968763</v>
       </c>
       <c r="T8">
-        <v>0.01982422848122214</v>
+        <v>0.03622184674495069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.55001</v>
       </c>
       <c r="I9">
-        <v>0.1525449710532097</v>
+        <v>0.3377932240667058</v>
       </c>
       <c r="J9">
-        <v>0.1843586404941081</v>
+        <v>0.4201920088691474</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.201880999999999</v>
       </c>
       <c r="O9">
-        <v>0.04371471213636324</v>
+        <v>0.03605080908802919</v>
       </c>
       <c r="P9">
-        <v>0.04650880075359928</v>
+        <v>0.03806044092383246</v>
       </c>
       <c r="Q9">
         <v>1.473872063201111</v>
@@ -1013,10 +1013,10 @@
         <v>13.26484856881</v>
       </c>
       <c r="S9">
-        <v>0.006668459497440925</v>
+        <v>0.01217771903205868</v>
       </c>
       <c r="T9">
-        <v>0.008574299277944912</v>
+        <v>0.01599269313023067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.55001</v>
       </c>
       <c r="I10">
-        <v>0.1525449710532097</v>
+        <v>0.3377932240667058</v>
       </c>
       <c r="J10">
-        <v>0.1843586404941081</v>
+        <v>0.4201920088691474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.377631</v>
+        <v>12.79502633333333</v>
       </c>
       <c r="N10">
-        <v>34.132893</v>
+        <v>38.385079</v>
       </c>
       <c r="O10">
-        <v>0.286840393287791</v>
+        <v>0.2660216861665844</v>
       </c>
       <c r="P10">
-        <v>0.3051742090372547</v>
+        <v>0.2808509136668336</v>
       </c>
       <c r="Q10">
-        <v>9.671024275436666</v>
+        <v>10.87581503342111</v>
       </c>
       <c r="R10">
-        <v>87.03921847892998</v>
+        <v>97.88233530078999</v>
       </c>
       <c r="S10">
-        <v>0.04375605949097738</v>
+        <v>0.08986032304187196</v>
       </c>
       <c r="T10">
-        <v>0.05626150229197304</v>
+        <v>0.1180113096064023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.55001</v>
       </c>
       <c r="I11">
-        <v>0.1525449710532097</v>
+        <v>0.3377932240667058</v>
       </c>
       <c r="J11">
-        <v>0.1843586404941081</v>
+        <v>0.4201920088691474</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.1353665</v>
+        <v>1.727957</v>
       </c>
       <c r="N11">
-        <v>2.270733</v>
+        <v>3.455914</v>
       </c>
       <c r="O11">
-        <v>0.02862361886984934</v>
+        <v>0.03592599364690791</v>
       </c>
       <c r="P11">
-        <v>0.02030209238958422</v>
+        <v>0.02528577847798624</v>
       </c>
       <c r="Q11">
-        <v>0.9650653095549999</v>
+        <v>1.468769209856667</v>
       </c>
       <c r="R11">
-        <v>5.79039185733</v>
+        <v>8.812615259139999</v>
       </c>
       <c r="S11">
-        <v>0.004366389111939276</v>
+        <v>0.01213555722178901</v>
       </c>
       <c r="T11">
-        <v>0.003742866152129525</v>
+        <v>0.01062488205448529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.55001</v>
       </c>
       <c r="I12">
-        <v>0.1525449710532097</v>
+        <v>0.3377932240667058</v>
       </c>
       <c r="J12">
-        <v>0.1843586404941081</v>
+        <v>0.4201920088691474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.206652333333333</v>
+        <v>14.23741033333333</v>
       </c>
       <c r="N12">
-        <v>12.619957</v>
+        <v>42.712231</v>
       </c>
       <c r="O12">
-        <v>0.1060535193766029</v>
+        <v>0.2960103250160475</v>
       </c>
       <c r="P12">
-        <v>0.1128320824009604</v>
+        <v>0.3125112521221815</v>
       </c>
       <c r="Q12">
-        <v>3.575668505507778</v>
+        <v>12.10184624136778</v>
       </c>
       <c r="R12">
-        <v>32.18101654957</v>
+        <v>108.91661617231</v>
       </c>
       <c r="S12">
-        <v>0.0161779310433949</v>
+        <v>0.09999028204420413</v>
       </c>
       <c r="T12">
-        <v>0.02080156931556025</v>
+        <v>0.1313147308234321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.55001</v>
       </c>
       <c r="I13">
-        <v>0.1525449710532097</v>
+        <v>0.3377932240667058</v>
       </c>
       <c r="J13">
-        <v>0.1843586404941081</v>
+        <v>0.4201920088691474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.19825166666667</v>
+        <v>11.712458</v>
       </c>
       <c r="N13">
-        <v>45.594755</v>
+        <v>35.137374</v>
       </c>
       <c r="O13">
-        <v>0.3831617043436804</v>
+        <v>0.2435139831012437</v>
       </c>
       <c r="P13">
-        <v>0.4076520350435111</v>
+        <v>0.2570885315034325</v>
       </c>
       <c r="Q13">
-        <v>12.91856457750555</v>
+        <v>9.955628341526667</v>
       </c>
       <c r="R13">
-        <v>116.26708119755</v>
+        <v>89.60065507374</v>
       </c>
       <c r="S13">
-        <v>0.05844939109780523</v>
+        <v>0.08225737345709443</v>
       </c>
       <c r="T13">
-        <v>0.07515417497527822</v>
+        <v>0.1080265465096464</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3447446666666667</v>
+        <v>0.04227833333333333</v>
       </c>
       <c r="H14">
-        <v>1.034234</v>
+        <v>0.126835</v>
       </c>
       <c r="I14">
-        <v>0.06186924584305368</v>
+        <v>0.0168015041409644</v>
       </c>
       <c r="J14">
-        <v>0.07477224567463792</v>
+        <v>0.02089993899824641</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.013510500000001</v>
+        <v>5.8908695</v>
       </c>
       <c r="N14">
-        <v>12.027021</v>
+        <v>11.781739</v>
       </c>
       <c r="O14">
-        <v>0.1516060519857131</v>
+        <v>0.1224772029811874</v>
       </c>
       <c r="P14">
-        <v>0.1075307803750902</v>
+        <v>0.08620308330573365</v>
       </c>
       <c r="Q14">
-        <v>2.073125672819001</v>
+        <v>0.2490561443441667</v>
       </c>
       <c r="R14">
-        <v>12.438754036914</v>
+        <v>1.494336866065</v>
       </c>
       <c r="S14">
-        <v>0.009379752101598863</v>
+        <v>0.002057801233062157</v>
       </c>
       <c r="T14">
-        <v>0.008040317927791776</v>
+        <v>0.001801639182550586</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3447446666666667</v>
+        <v>0.04227833333333333</v>
       </c>
       <c r="H15">
-        <v>1.034234</v>
+        <v>0.126835</v>
       </c>
       <c r="I15">
-        <v>0.06186924584305368</v>
+        <v>0.0168015041409644</v>
       </c>
       <c r="J15">
-        <v>0.07477224567463792</v>
+        <v>0.02089993899824641</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.201880999999999</v>
       </c>
       <c r="O15">
-        <v>0.04371471213636324</v>
+        <v>0.03605080908802919</v>
       </c>
       <c r="P15">
-        <v>0.04650880075359928</v>
+        <v>0.03806044092383246</v>
       </c>
       <c r="Q15">
-        <v>0.5977735771282222</v>
+        <v>0.07330895295944444</v>
       </c>
       <c r="R15">
-        <v>5.379962194153999</v>
+        <v>0.6597805766349999</v>
       </c>
       <c r="S15">
-        <v>0.002704596272122979</v>
+        <v>0.0006057078181776395</v>
       </c>
       <c r="T15">
-        <v>0.00347756747598091</v>
+        <v>0.0007954608935544596</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3447446666666667</v>
+        <v>0.04227833333333333</v>
       </c>
       <c r="H16">
-        <v>1.034234</v>
+        <v>0.126835</v>
       </c>
       <c r="I16">
-        <v>0.06186924584305368</v>
+        <v>0.0168015041409644</v>
       </c>
       <c r="J16">
-        <v>0.07477224567463792</v>
+        <v>0.02089993899824641</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.377631</v>
+        <v>12.79502633333333</v>
       </c>
       <c r="N16">
-        <v>34.132893</v>
+        <v>38.385079</v>
       </c>
       <c r="O16">
-        <v>0.286840393287791</v>
+        <v>0.2660216861665844</v>
       </c>
       <c r="P16">
-        <v>0.3051742090372547</v>
+        <v>0.2808509136668336</v>
       </c>
       <c r="Q16">
-        <v>3.922377606551334</v>
+        <v>0.5409523883294445</v>
       </c>
       <c r="R16">
-        <v>35.301398458962</v>
+        <v>4.868571494965</v>
       </c>
       <c r="S16">
-        <v>0.01774659881004055</v>
+        <v>0.004469564461714201</v>
       </c>
       <c r="T16">
-        <v>0.02281856093169692</v>
+        <v>0.005869766963238591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3447446666666667</v>
+        <v>0.04227833333333333</v>
       </c>
       <c r="H17">
-        <v>1.034234</v>
+        <v>0.126835</v>
       </c>
       <c r="I17">
-        <v>0.06186924584305368</v>
+        <v>0.0168015041409644</v>
       </c>
       <c r="J17">
-        <v>0.07477224567463792</v>
+        <v>0.02089993899824641</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.1353665</v>
+        <v>1.727957</v>
       </c>
       <c r="N17">
-        <v>2.270733</v>
+        <v>3.455914</v>
       </c>
       <c r="O17">
-        <v>0.02862361886984934</v>
+        <v>0.03592599364690791</v>
       </c>
       <c r="P17">
-        <v>0.02030209238958422</v>
+        <v>0.02528577847798624</v>
       </c>
       <c r="Q17">
-        <v>0.391411545587</v>
+        <v>0.07305514203166667</v>
       </c>
       <c r="R17">
-        <v>2.348469273522</v>
+        <v>0.43833085219</v>
       </c>
       <c r="S17">
-        <v>0.001770921712776579</v>
+        <v>0.0006036107310267841</v>
       </c>
       <c r="T17">
-        <v>0.001518033039863188</v>
+        <v>0.0005284712277130844</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3447446666666667</v>
+        <v>0.04227833333333333</v>
       </c>
       <c r="H18">
-        <v>1.034234</v>
+        <v>0.126835</v>
       </c>
       <c r="I18">
-        <v>0.06186924584305368</v>
+        <v>0.0168015041409644</v>
       </c>
       <c r="J18">
-        <v>0.07477224567463792</v>
+        <v>0.02089993899824641</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.206652333333333</v>
+        <v>14.23741033333333</v>
       </c>
       <c r="N18">
-        <v>12.619957</v>
+        <v>42.712231</v>
       </c>
       <c r="O18">
-        <v>0.1060535193766029</v>
+        <v>0.2960103250160475</v>
       </c>
       <c r="P18">
-        <v>0.1128320824009604</v>
+        <v>0.3125112521221815</v>
       </c>
       <c r="Q18">
-        <v>1.450220956437556</v>
+        <v>0.6019339798761111</v>
       </c>
       <c r="R18">
-        <v>13.051988607938</v>
+        <v>5.417405818884999</v>
       </c>
       <c r="S18">
-        <v>0.006561451262832099</v>
+        <v>0.00497341870152534</v>
       </c>
       <c r="T18">
-        <v>0.008436708185265604</v>
+        <v>0.006531466105619196</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3447446666666667</v>
+        <v>0.04227833333333333</v>
       </c>
       <c r="H19">
-        <v>1.034234</v>
+        <v>0.126835</v>
       </c>
       <c r="I19">
-        <v>0.06186924584305368</v>
+        <v>0.0168015041409644</v>
       </c>
       <c r="J19">
-        <v>0.07477224567463792</v>
+        <v>0.02089993899824641</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.19825166666667</v>
+        <v>11.712458</v>
       </c>
       <c r="N19">
-        <v>45.594755</v>
+        <v>35.137374</v>
       </c>
       <c r="O19">
-        <v>0.3831617043436804</v>
+        <v>0.2435139831012437</v>
       </c>
       <c r="P19">
-        <v>0.4076520350435111</v>
+        <v>0.2570885315034325</v>
       </c>
       <c r="Q19">
-        <v>5.239516204741111</v>
+        <v>0.4951832034766667</v>
       </c>
       <c r="R19">
-        <v>47.15564584267</v>
+        <v>4.45664883129</v>
       </c>
       <c r="S19">
-        <v>0.02370592568368261</v>
+        <v>0.004091401195458281</v>
       </c>
       <c r="T19">
-        <v>0.03048105811403952</v>
+        <v>0.005373134625570489</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7852654999999999</v>
+        <v>0.9897235</v>
       </c>
       <c r="H20">
-        <v>1.570531</v>
+        <v>1.979447</v>
       </c>
       <c r="I20">
-        <v>0.1409268626004418</v>
+        <v>0.3933183305158619</v>
       </c>
       <c r="J20">
-        <v>0.1135450292406116</v>
+        <v>0.3261743331908531</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.013510500000001</v>
+        <v>5.8908695</v>
       </c>
       <c r="N20">
-        <v>12.027021</v>
+        <v>11.781739</v>
       </c>
       <c r="O20">
-        <v>0.1516060519857131</v>
+        <v>0.1224772029811874</v>
       </c>
       <c r="P20">
-        <v>0.1075307803750902</v>
+        <v>0.08620308330573365</v>
       </c>
       <c r="Q20">
-        <v>4.72220232953775</v>
+        <v>5.83033197958325</v>
       </c>
       <c r="R20">
-        <v>18.888809318151</v>
+        <v>23.321327918333</v>
       </c>
       <c r="S20">
-        <v>0.02136536525758604</v>
+        <v>0.04817252900281296</v>
       </c>
       <c r="T20">
-        <v>0.0122095856019554</v>
+        <v>0.02811723321624323</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7852654999999999</v>
+        <v>0.9897235</v>
       </c>
       <c r="H21">
-        <v>1.570531</v>
+        <v>1.979447</v>
       </c>
       <c r="I21">
-        <v>0.1409268626004418</v>
+        <v>0.3933183305158619</v>
       </c>
       <c r="J21">
-        <v>0.1135450292406116</v>
+        <v>0.3261743331908531</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.201880999999999</v>
       </c>
       <c r="O21">
-        <v>0.04371471213636324</v>
+        <v>0.03605080908802919</v>
       </c>
       <c r="P21">
-        <v>0.04650880075359928</v>
+        <v>0.03806044092383246</v>
       </c>
       <c r="Q21">
-        <v>1.361619228135166</v>
+        <v>1.716141289967833</v>
       </c>
       <c r="R21">
-        <v>8.169715368810998</v>
+        <v>10.296847739807</v>
       </c>
       <c r="S21">
-        <v>0.006160577230859129</v>
+        <v>0.0141794440442497</v>
       </c>
       <c r="T21">
-        <v>0.005280843141513211</v>
+        <v>0.01241433893928091</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7852654999999999</v>
+        <v>0.9897235</v>
       </c>
       <c r="H22">
-        <v>1.570531</v>
+        <v>1.979447</v>
       </c>
       <c r="I22">
-        <v>0.1409268626004418</v>
+        <v>0.3933183305158619</v>
       </c>
       <c r="J22">
-        <v>0.1135450292406116</v>
+        <v>0.3261743331908531</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.377631</v>
+        <v>12.79502633333333</v>
       </c>
       <c r="N22">
-        <v>34.132893</v>
+        <v>38.385079</v>
       </c>
       <c r="O22">
-        <v>0.286840393287791</v>
+        <v>0.2660216861665844</v>
       </c>
       <c r="P22">
-        <v>0.3051742090372547</v>
+        <v>0.2808509136668336</v>
       </c>
       <c r="Q22">
-        <v>8.934461096030498</v>
+        <v>12.66353824521883</v>
       </c>
       <c r="R22">
-        <v>53.60676657618299</v>
+        <v>75.981229471313</v>
       </c>
       <c r="S22">
-        <v>0.04042351669312523</v>
+        <v>0.1046312054840556</v>
       </c>
       <c r="T22">
-        <v>0.03465101448861562</v>
+        <v>0.0916063594913213</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7852654999999999</v>
+        <v>0.9897235</v>
       </c>
       <c r="H23">
-        <v>1.570531</v>
+        <v>1.979447</v>
       </c>
       <c r="I23">
-        <v>0.1409268626004418</v>
+        <v>0.3933183305158619</v>
       </c>
       <c r="J23">
-        <v>0.1135450292406116</v>
+        <v>0.3261743331908531</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.1353665</v>
+        <v>1.727957</v>
       </c>
       <c r="N23">
-        <v>2.270733</v>
+        <v>3.455914</v>
       </c>
       <c r="O23">
-        <v>0.02862361886984934</v>
+        <v>0.03592599364690791</v>
       </c>
       <c r="P23">
-        <v>0.02030209238958422</v>
+        <v>0.02528577847798624</v>
       </c>
       <c r="Q23">
-        <v>0.8915641423057499</v>
+        <v>1.7101996498895</v>
       </c>
       <c r="R23">
-        <v>3.566256569222999</v>
+        <v>6.840798599558</v>
       </c>
       <c r="S23">
-        <v>0.004033836803598673</v>
+        <v>0.01413035184332528</v>
       </c>
       <c r="T23">
-        <v>0.00230520167402094</v>
+        <v>0.008247571934268788</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7852654999999999</v>
+        <v>0.9897235</v>
       </c>
       <c r="H24">
-        <v>1.570531</v>
+        <v>1.979447</v>
       </c>
       <c r="I24">
-        <v>0.1409268626004418</v>
+        <v>0.3933183305158619</v>
       </c>
       <c r="J24">
-        <v>0.1135450292406116</v>
+        <v>0.3261743331908531</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.206652333333333</v>
+        <v>14.23741033333333</v>
       </c>
       <c r="N24">
-        <v>12.619957</v>
+        <v>42.712231</v>
       </c>
       <c r="O24">
-        <v>0.1060535193766029</v>
+        <v>0.2960103250160475</v>
       </c>
       <c r="P24">
-        <v>0.1128320824009604</v>
+        <v>0.3125112521221815</v>
       </c>
       <c r="Q24">
-        <v>3.303338947861167</v>
+        <v>14.09109958604283</v>
       </c>
       <c r="R24">
-        <v>19.820033687167</v>
+        <v>84.54659751625699</v>
       </c>
       <c r="S24">
-        <v>0.01494578975347981</v>
+        <v>0.1164262868507695</v>
       </c>
       <c r="T24">
-        <v>0.01281152209549616</v>
+        <v>0.1019331492755911</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7852654999999999</v>
+        <v>0.9897235</v>
       </c>
       <c r="H25">
-        <v>1.570531</v>
+        <v>1.979447</v>
       </c>
       <c r="I25">
-        <v>0.1409268626004418</v>
+        <v>0.3933183305158619</v>
       </c>
       <c r="J25">
-        <v>0.1135450292406116</v>
+        <v>0.3261743331908531</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.19825166666667</v>
+        <v>11.712458</v>
       </c>
       <c r="N25">
-        <v>45.594755</v>
+        <v>35.137374</v>
       </c>
       <c r="O25">
-        <v>0.3831617043436804</v>
+        <v>0.2435139831012437</v>
       </c>
       <c r="P25">
-        <v>0.4076520350435111</v>
+        <v>0.2570885315034325</v>
       </c>
       <c r="Q25">
-        <v>11.93466269415083</v>
+        <v>11.592094925363</v>
       </c>
       <c r="R25">
-        <v>71.607976164905</v>
+        <v>69.552569552178</v>
       </c>
       <c r="S25">
-        <v>0.05399777686179297</v>
+        <v>0.09577851329064897</v>
       </c>
       <c r="T25">
-        <v>0.04628686223901031</v>
+        <v>0.08385568033414774</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.8341876666666668</v>
+        <v>0.02098366666666666</v>
       </c>
       <c r="H26">
-        <v>2.502563</v>
+        <v>0.06295099999999999</v>
       </c>
       <c r="I26">
-        <v>0.1497066287559005</v>
+        <v>0.008338956023005085</v>
       </c>
       <c r="J26">
-        <v>0.1809283541754176</v>
+        <v>0.01037309938012859</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.013510500000001</v>
+        <v>5.8908695</v>
       </c>
       <c r="N26">
-        <v>12.027021</v>
+        <v>11.781739</v>
       </c>
       <c r="O26">
-        <v>0.1516060519857131</v>
+        <v>0.1224772029811874</v>
       </c>
       <c r="P26">
-        <v>0.1075307803750902</v>
+        <v>0.08620308330573365</v>
       </c>
       <c r="Q26">
-        <v>5.016396292470501</v>
+        <v>0.1236120419648333</v>
       </c>
       <c r="R26">
-        <v>30.09837775482301</v>
+        <v>0.7416722517889999</v>
       </c>
       <c r="S26">
-        <v>0.0226964309417729</v>
+        <v>0.001021332009480789</v>
       </c>
       <c r="T26">
-        <v>0.01945536711646336</v>
+        <v>0.0008941931500038786</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.8341876666666668</v>
+        <v>0.02098366666666666</v>
       </c>
       <c r="H27">
-        <v>2.502563</v>
+        <v>0.06295099999999999</v>
       </c>
       <c r="I27">
-        <v>0.1497066287559005</v>
+        <v>0.008338956023005085</v>
       </c>
       <c r="J27">
-        <v>0.1809283541754176</v>
+        <v>0.01037309938012859</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.201880999999999</v>
       </c>
       <c r="O27">
-        <v>0.04371471213636324</v>
+        <v>0.03605080908802919</v>
       </c>
       <c r="P27">
-        <v>0.04650880075359928</v>
+        <v>0.03806044092383246</v>
       </c>
       <c r="Q27">
-        <v>1.446448324555889</v>
+        <v>0.03638484564788888</v>
       </c>
       <c r="R27">
-        <v>13.018034921003</v>
+        <v>0.3274636108309999</v>
       </c>
       <c r="S27">
-        <v>0.006544382180969587</v>
+        <v>0.0003006261115788275</v>
       </c>
       <c r="T27">
-        <v>0.008414760775021141</v>
+        <v>0.0003948047361544272</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.8341876666666668</v>
+        <v>0.02098366666666666</v>
       </c>
       <c r="H28">
-        <v>2.502563</v>
+        <v>0.06295099999999999</v>
       </c>
       <c r="I28">
-        <v>0.1497066287559005</v>
+        <v>0.008338956023005085</v>
       </c>
       <c r="J28">
-        <v>0.1809283541754176</v>
+        <v>0.01037309938012859</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.377631</v>
+        <v>12.79502633333333</v>
       </c>
       <c r="N28">
-        <v>34.132893</v>
+        <v>38.385079</v>
       </c>
       <c r="O28">
-        <v>0.286840393287791</v>
+        <v>0.2660216861665844</v>
       </c>
       <c r="P28">
-        <v>0.3051742090372547</v>
+        <v>0.2808509136668336</v>
       </c>
       <c r="Q28">
-        <v>9.491079456084334</v>
+        <v>0.2684865675698889</v>
       </c>
       <c r="R28">
-        <v>85.41971510475901</v>
+        <v>2.416379108129</v>
       </c>
       <c r="S28">
-        <v>0.04294190827013181</v>
+        <v>0.002218343142108808</v>
       </c>
       <c r="T28">
-        <v>0.05521466737789536</v>
+        <v>0.002913294438465979</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.8341876666666668</v>
+        <v>0.02098366666666666</v>
       </c>
       <c r="H29">
-        <v>2.502563</v>
+        <v>0.06295099999999999</v>
       </c>
       <c r="I29">
-        <v>0.1497066287559005</v>
+        <v>0.008338956023005085</v>
       </c>
       <c r="J29">
-        <v>0.1809283541754176</v>
+        <v>0.01037309938012859</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.1353665</v>
+        <v>1.727957</v>
       </c>
       <c r="N29">
-        <v>2.270733</v>
+        <v>3.455914</v>
       </c>
       <c r="O29">
-        <v>0.02862361886984934</v>
+        <v>0.03592599364690791</v>
       </c>
       <c r="P29">
-        <v>0.02030209238958422</v>
+        <v>0.02528577847798624</v>
       </c>
       <c r="Q29">
-        <v>0.9471087314465001</v>
+        <v>0.03625887370233333</v>
       </c>
       <c r="R29">
-        <v>5.682652388679</v>
+        <v>0.217553242214</v>
       </c>
       <c r="S29">
-        <v>0.004285145483798923</v>
+        <v>0.0002995852811043252</v>
       </c>
       <c r="T29">
-        <v>0.003673224162364745</v>
+        <v>0.0002622918930560678</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.8341876666666668</v>
+        <v>0.02098366666666666</v>
       </c>
       <c r="H30">
-        <v>2.502563</v>
+        <v>0.06295099999999999</v>
       </c>
       <c r="I30">
-        <v>0.1497066287559005</v>
+        <v>0.008338956023005085</v>
       </c>
       <c r="J30">
-        <v>0.1809283541754176</v>
+        <v>0.01037309938012859</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.206652333333333</v>
+        <v>14.23741033333333</v>
       </c>
       <c r="N30">
-        <v>12.619957</v>
+        <v>42.712231</v>
       </c>
       <c r="O30">
-        <v>0.1060535193766029</v>
+        <v>0.2960103250160475</v>
       </c>
       <c r="P30">
-        <v>0.1128320824009604</v>
+        <v>0.3125112521221815</v>
       </c>
       <c r="Q30">
-        <v>3.509137494421223</v>
+        <v>0.2987530726312221</v>
       </c>
       <c r="R30">
-        <v>31.582237449791</v>
+        <v>2.688777653681</v>
       </c>
       <c r="S30">
-        <v>0.01587691485356978</v>
+        <v>0.002468417082664262</v>
       </c>
       <c r="T30">
-        <v>0.02041452296699088</v>
+        <v>0.00324171027567181</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.8341876666666668</v>
+        <v>0.02098366666666666</v>
       </c>
       <c r="H31">
-        <v>2.502563</v>
+        <v>0.06295099999999999</v>
       </c>
       <c r="I31">
-        <v>0.1497066287559005</v>
+        <v>0.008338956023005085</v>
       </c>
       <c r="J31">
-        <v>0.1809283541754176</v>
+        <v>0.01037309938012859</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.19825166666667</v>
+        <v>11.712458</v>
       </c>
       <c r="N31">
-        <v>45.594755</v>
+        <v>35.137374</v>
       </c>
       <c r="O31">
-        <v>0.3831617043436804</v>
+        <v>0.2435139831012437</v>
       </c>
       <c r="P31">
-        <v>0.4076520350435111</v>
+        <v>0.2570885315034325</v>
       </c>
       <c r="Q31">
-        <v>12.67819409522945</v>
+        <v>0.2457703145193333</v>
       </c>
       <c r="R31">
-        <v>114.103746857065</v>
+        <v>2.211932830674</v>
       </c>
       <c r="S31">
-        <v>0.05736184702565746</v>
+        <v>0.002030652396068075</v>
       </c>
       <c r="T31">
-        <v>0.07375581177668214</v>
+        <v>0.002666804886776424</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.6585559999999999</v>
+        <v>0.1227283333333333</v>
       </c>
       <c r="H32">
-        <v>1.975668</v>
+        <v>0.368185</v>
       </c>
       <c r="I32">
-        <v>0.1181870729411856</v>
+        <v>0.04877251391288665</v>
       </c>
       <c r="J32">
-        <v>0.1428353090959304</v>
+        <v>0.06066972081893288</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.013510500000001</v>
+        <v>5.8908695</v>
       </c>
       <c r="N32">
-        <v>12.027021</v>
+        <v>11.781739</v>
       </c>
       <c r="O32">
-        <v>0.1516060519857131</v>
+        <v>0.1224772029811874</v>
       </c>
       <c r="P32">
-        <v>0.1075307803750902</v>
+        <v>0.08620308330573365</v>
       </c>
       <c r="Q32">
-        <v>3.960233420838</v>
+        <v>0.7229765956191666</v>
       </c>
       <c r="R32">
-        <v>23.761400525028</v>
+        <v>4.337859573715</v>
       </c>
       <c r="S32">
-        <v>0.01791787552436066</v>
+        <v>0.005973521086411404</v>
       </c>
       <c r="T32">
-        <v>0.01535919225220261</v>
+        <v>0.005229916997890075</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.6585559999999999</v>
+        <v>0.1227283333333333</v>
       </c>
       <c r="H33">
-        <v>1.975668</v>
+        <v>0.368185</v>
       </c>
       <c r="I33">
-        <v>0.1181870729411856</v>
+        <v>0.04877251391288665</v>
       </c>
       <c r="J33">
-        <v>0.1428353090959304</v>
+        <v>0.06066972081893288</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.201880999999999</v>
       </c>
       <c r="O33">
-        <v>0.04371471213636324</v>
+        <v>0.03605080908802919</v>
       </c>
       <c r="P33">
-        <v>0.04650880075359928</v>
+        <v>0.03806044092383246</v>
       </c>
       <c r="Q33">
-        <v>1.141909981278666</v>
+        <v>0.2128060617761111</v>
       </c>
       <c r="R33">
-        <v>10.277189831508</v>
+        <v>1.915254555985</v>
       </c>
       <c r="S33">
-        <v>0.005166513871863294</v>
+        <v>0.001758288587816724</v>
       </c>
       <c r="T33">
-        <v>0.006643098931321394</v>
+        <v>0.002309116325094404</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.6585559999999999</v>
+        <v>0.1227283333333333</v>
       </c>
       <c r="H34">
-        <v>1.975668</v>
+        <v>0.368185</v>
       </c>
       <c r="I34">
-        <v>0.1181870729411856</v>
+        <v>0.04877251391288665</v>
       </c>
       <c r="J34">
-        <v>0.1428353090959304</v>
+        <v>0.06066972081893288</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>11.377631</v>
+        <v>12.79502633333333</v>
       </c>
       <c r="N34">
-        <v>34.132893</v>
+        <v>38.385079</v>
       </c>
       <c r="O34">
-        <v>0.286840393287791</v>
+        <v>0.2660216861665844</v>
       </c>
       <c r="P34">
-        <v>0.3051742090372547</v>
+        <v>0.2808509136668336</v>
       </c>
       <c r="Q34">
-        <v>7.492807160835999</v>
+        <v>1.570312256846111</v>
       </c>
       <c r="R34">
-        <v>67.43526444752398</v>
+        <v>14.132810311615</v>
       </c>
       <c r="S34">
-        <v>0.03390082648398252</v>
+        <v>0.01297454638968931</v>
       </c>
       <c r="T34">
-        <v>0.04358965247594236</v>
+        <v>0.01703914652390902</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.6585559999999999</v>
+        <v>0.1227283333333333</v>
       </c>
       <c r="H35">
-        <v>1.975668</v>
+        <v>0.368185</v>
       </c>
       <c r="I35">
-        <v>0.1181870729411856</v>
+        <v>0.04877251391288665</v>
       </c>
       <c r="J35">
-        <v>0.1428353090959304</v>
+        <v>0.06066972081893288</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.1353665</v>
+        <v>1.727957</v>
       </c>
       <c r="N35">
-        <v>2.270733</v>
+        <v>3.455914</v>
       </c>
       <c r="O35">
-        <v>0.02862361886984934</v>
+        <v>0.03592599364690791</v>
       </c>
       <c r="P35">
-        <v>0.02030209238958422</v>
+        <v>0.02528577847798624</v>
       </c>
       <c r="Q35">
-        <v>0.7477024207739998</v>
+        <v>0.2120692826816667</v>
       </c>
       <c r="R35">
-        <v>4.486214524643999</v>
+        <v>1.27241569609</v>
       </c>
       <c r="S35">
-        <v>0.003382941731211581</v>
+        <v>0.001752201024978094</v>
       </c>
       <c r="T35">
-        <v>0.002899855641760399</v>
+        <v>0.001534081120948807</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.6585559999999999</v>
+        <v>0.1227283333333333</v>
       </c>
       <c r="H36">
-        <v>1.975668</v>
+        <v>0.368185</v>
       </c>
       <c r="I36">
-        <v>0.1181870729411856</v>
+        <v>0.04877251391288665</v>
       </c>
       <c r="J36">
-        <v>0.1428353090959304</v>
+        <v>0.06066972081893288</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.206652333333333</v>
+        <v>14.23741033333333</v>
       </c>
       <c r="N36">
-        <v>12.619957</v>
+        <v>42.712231</v>
       </c>
       <c r="O36">
-        <v>0.1060535193766029</v>
+        <v>0.2960103250160475</v>
       </c>
       <c r="P36">
-        <v>0.1128320824009604</v>
+        <v>0.3125112521221815</v>
       </c>
       <c r="Q36">
-        <v>2.770316134030666</v>
+        <v>1.747333641192777</v>
       </c>
       <c r="R36">
-        <v>24.932845206276</v>
+        <v>15.726002770735</v>
       </c>
       <c r="S36">
-        <v>0.012534155030232</v>
+        <v>0.01443716769520327</v>
       </c>
       <c r="T36">
-        <v>0.01611640536567868</v>
+        <v>0.0189599704190279</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.6585559999999999</v>
+        <v>0.1227283333333333</v>
       </c>
       <c r="H37">
-        <v>1.975668</v>
+        <v>0.368185</v>
       </c>
       <c r="I37">
-        <v>0.1181870729411856</v>
+        <v>0.04877251391288665</v>
       </c>
       <c r="J37">
-        <v>0.1428353090959304</v>
+        <v>0.06066972081893288</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.19825166666667</v>
+        <v>11.712458</v>
       </c>
       <c r="N37">
-        <v>45.594755</v>
+        <v>35.137374</v>
       </c>
       <c r="O37">
-        <v>0.3831617043436804</v>
+        <v>0.2435139831012437</v>
       </c>
       <c r="P37">
-        <v>0.4076520350435111</v>
+        <v>0.2570885315034325</v>
       </c>
       <c r="Q37">
-        <v>10.00889982459333</v>
+        <v>1.437450449576667</v>
       </c>
       <c r="R37">
-        <v>90.08009842133998</v>
+        <v>12.93705404619</v>
       </c>
       <c r="S37">
-        <v>0.04528476029953555</v>
+        <v>0.01187678912878785</v>
       </c>
       <c r="T37">
-        <v>0.05822710442902497</v>
+        <v>0.01559748943206268</v>
       </c>
     </row>
   </sheetData>
